--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -544,12 +544,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -586,7 +585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -632,7 +631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -655,7 +654,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" hidden="1">
+    <row r="5" spans="1:7" ht="22.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -678,7 +677,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.5" hidden="1">
+    <row r="6" spans="1:7" ht="22.5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -701,7 +700,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33.75" hidden="1">
+    <row r="7" spans="1:7" ht="33.75">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -724,7 +723,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -747,7 +746,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -767,7 +766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -790,7 +789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -813,7 +812,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -836,7 +835,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -859,7 +858,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -882,7 +881,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -905,7 +904,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -928,7 +927,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -951,7 +950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -974,7 +973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5" hidden="1">
+    <row r="19" spans="1:7" ht="22.5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -997,7 +996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1020,7 +1019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1043,7 +1042,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1089,7 +1088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5" hidden="1">
+    <row r="25" spans="1:7" ht="22.5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1135,7 +1134,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.5" hidden="1">
+    <row r="26" spans="1:7" ht="22.5">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1181,7 +1180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1204,7 +1203,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1250,7 +1249,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1273,7 +1272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1296,7 +1295,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1342,7 +1341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1362,7 +1361,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1383,13 +1382,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Alexandre"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="20730" windowHeight="10110"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="56">
   <si>
     <t>Tarefa</t>
   </si>
@@ -179,13 +184,19 @@
   </si>
   <si>
     <t>Diferenciar "Tabela" e "Quadro"</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Verificar se o nome completo está correto na capa do trabalho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +267,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -300,9 +319,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,9 +353,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,9 +405,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -543,15 +598,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -562,7 +617,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -585,7 +640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -608,7 +663,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -631,7 +686,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -654,7 +709,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5">
+    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -677,7 +732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.5">
+    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -700,7 +755,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33.75">
+    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -723,7 +778,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -743,10 +798,10 @@
         <v>42928</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -766,7 +821,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -789,7 +844,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -812,7 +867,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -835,7 +890,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -855,10 +910,10 @@
         <v>42933</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -881,7 +936,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -904,7 +959,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -927,7 +982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -950,7 +1005,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -973,7 +1028,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5">
+    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -996,7 +1051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1019,7 +1074,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1042,7 +1097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1065,7 +1120,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1088,7 +1143,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1108,10 +1163,10 @@
         <v>42933</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1134,7 +1189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.5">
+    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1157,7 +1212,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1180,7 +1235,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1203,7 +1258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1223,10 +1278,10 @@
         <v>42933</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1246,10 +1301,10 @@
         <v>42933</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1272,7 +1327,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1292,10 +1347,10 @@
         <v>42933</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1318,7 +1373,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1341,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1358,10 +1413,10 @@
         <v>42933</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1381,7 +1436,28 @@
         <v>51</v>
       </c>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="3">
+        <v>42933</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G36"/>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$G$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$G$37</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -195,8 +190,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,9 +274,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,9 +314,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,27 +348,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,27 +382,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -598,15 +557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -617,7 +577,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5">
       <c r="A1" s="6" t="s">
         <v>30</v>
       </c>
@@ -640,7 +600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" hidden="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -663,7 +623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -686,7 +646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -709,7 +669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="22.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -732,7 +692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="22.5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -755,7 +715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="33.75">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -778,7 +738,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" hidden="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -801,7 +761,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" hidden="1">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -821,7 +781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" hidden="1">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -844,7 +804,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" hidden="1">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -867,7 +827,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -890,7 +850,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" hidden="1">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -913,7 +873,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" hidden="1">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -936,7 +896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" hidden="1">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -959,7 +919,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" hidden="1">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -982,7 +942,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1005,7 +965,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1028,7 +988,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="22.5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1051,7 +1011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" hidden="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1074,7 +1034,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1097,7 +1057,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1120,7 +1080,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" hidden="1">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1143,7 +1103,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" hidden="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1166,7 +1126,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="22.5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1189,7 +1149,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="22.5" hidden="1">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1212,7 +1172,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" hidden="1">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1235,7 +1195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" hidden="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1258,7 +1218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" hidden="1">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1281,7 +1241,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" hidden="1">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1304,7 +1264,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1327,7 +1287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1350,7 +1310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" hidden="1">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1373,7 +1333,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" hidden="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1396,7 +1356,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" hidden="1">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1416,7 +1376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" hidden="1">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1436,7 +1396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1457,7 +1417,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G36"/>
+  <autoFilter ref="A1:G37">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Todos"/>
+        <filter val="Vagner"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
   <si>
     <t>Tarefa</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>Revisar texto tópico características</t>
+  </si>
+  <si>
+    <t>Não entendi esta pendencia, só temos tabelas até o momento</t>
   </si>
 </sst>
 </file>
@@ -599,11 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1071,7 +1074,7 @@
         <v>42933</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1350,7 +1353,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1373,7 +1376,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1416,7 +1419,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1433,10 +1436,13 @@
         <v>42933</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1456,7 +1462,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>42933</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
@@ -15,7 +10,7 @@
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$H$38</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -135,9 +130,6 @@
     <t>É necessário estudar sobre licença comercial para uso da linguagem de programação e outras tecnologias que usaremos no projeto, mencionamos que seria privilegiados o uso de tecnologia free, devemos ter uma base solida pra justificar o que usaremos</t>
   </si>
   <si>
-    <t>Realizar ajuste na lista de características, incluir identificador para se referir ao subsistema correspondente</t>
-  </si>
-  <si>
     <t>Analisar se temos mais algum subsistemas considerados muito simples (crud), sem complexidade</t>
   </si>
   <si>
@@ -192,14 +184,39 @@
     <t>Revisar texto tópico características</t>
   </si>
   <si>
-    <t>Não entendi esta pendencia, só temos tabelas até o momento</t>
+    <r>
+      <t xml:space="preserve">Realizar ajuste na lista de características, incluir identificador para se referir ao subsistema correspondente -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Seguindo o padrão do exemplos passado pelo professor, deixei apenas a sigla CAR sem identificar o subsistema.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Não entendi esta pendencia, só temos tabelas até o momento - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Na última versão tinhamos o quadro de stakeholrders/ usuário, porém não vi nesse versão, removemos ele?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +240,18 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="6" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -282,9 +311,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,9 +351,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,27 +385,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,27 +419,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -601,15 +594,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -617,10 +610,12 @@
     <col min="4" max="4" width="12.28515625" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -634,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>28</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -663,10 +658,10 @@
         <v>42933</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -686,10 +681,10 @@
         <v>42933</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -709,10 +704,10 @@
         <v>42933</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -720,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -732,10 +727,10 @@
         <v>42933</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="22.5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -755,10 +750,10 @@
         <v>42933</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33.75" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="33.75">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -778,10 +773,10 @@
         <v>42933</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -801,10 +796,10 @@
         <v>42928</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -821,10 +816,10 @@
         <v>42933</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -844,10 +839,10 @@
         <v>42933</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -867,10 +862,10 @@
         <v>42933</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -884,16 +879,16 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F12" s="3">
         <v>42933</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -913,10 +908,10 @@
         <v>42933</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -936,10 +931,10 @@
         <v>42933</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -959,10 +954,10 @@
         <v>42933</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -982,10 +977,10 @@
         <v>42933</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="22.5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -993,7 +988,7 @@
         <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
@@ -1005,10 +1000,10 @@
         <v>42933</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1016,7 +1011,7 @@
         <v>30</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>18</v>
@@ -1028,10 +1023,10 @@
         <v>42933</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="22.5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1039,7 +1034,7 @@
         <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>18</v>
@@ -1051,10 +1046,10 @@
         <v>42933</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1062,7 +1057,7 @@
         <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
@@ -1074,10 +1069,10 @@
         <v>42933</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1085,22 +1080,22 @@
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F21" s="3">
         <v>42933</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1114,16 +1109,16 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F22" s="3">
         <v>42933</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1143,10 +1138,10 @@
         <v>42933</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1166,10 +1161,10 @@
         <v>42933</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="22.5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1177,7 +1172,7 @@
         <v>31</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>18</v>
@@ -1189,10 +1184,10 @@
         <v>42933</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="22.5" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="22.5">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1200,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>18</v>
@@ -1212,10 +1207,10 @@
         <v>42933</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1235,10 +1230,10 @@
         <v>42933</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1246,7 +1241,7 @@
         <v>30</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>18</v>
@@ -1258,10 +1253,10 @@
         <v>42933</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1281,10 +1276,10 @@
         <v>42933</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1304,10 +1299,10 @@
         <v>42933</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1327,10 +1322,10 @@
         <v>42933</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1350,10 +1345,10 @@
         <v>42933</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1373,10 +1368,10 @@
         <v>42933</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1384,7 +1379,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>19</v>
@@ -1396,73 +1391,73 @@
         <v>42933</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>0</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
-        <v>0</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="4" t="s">
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3">
+        <v>42933</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="56.25">
+      <c r="A36" s="1">
+        <v>0</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="3">
-        <v>42933</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3">
+        <v>42933</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>0</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
-        <v>0</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="3">
-        <v>42933</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
-        <v>0</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F37" s="3">
         <v>42933</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1470,7 +1465,7 @@
         <v>30</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>20</v>
@@ -1479,11 +1474,10 @@
         <v>42933</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G38"/>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
   <si>
     <t>Tarefa</t>
   </si>
@@ -210,6 +210,21 @@
       </rPr>
       <t>Na última versão tinhamos o quadro de stakeholrders/ usuário, porém não vi nesse versão, removemos ele?</t>
     </r>
+  </si>
+  <si>
+    <t>Susbsistema serviço será excluído</t>
+  </si>
+  <si>
+    <t>Susbsistema empresa foi atualizado, consultar wbs para verificar atualizações</t>
+  </si>
+  <si>
+    <t>Análise realizada, subsistemas controle de acesso e empresa sofreram alterações, verificar no wbs</t>
+  </si>
+  <si>
+    <t>Padronização realizada</t>
+  </si>
+  <si>
+    <t>Nomenclatura padronizada no WBS</t>
   </si>
 </sst>
 </file>
@@ -276,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -292,6 +307,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,11 +613,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -611,11 +630,11 @@
     <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="28.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="4" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" ht="22.5">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="22.5">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -637,8 +656,9 @@
       <c r="G1" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" hidden="1">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -660,8 +680,9 @@
       <c r="G2" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" hidden="1">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -683,8 +704,9 @@
       <c r="G3" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" hidden="1">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -706,8 +728,9 @@
       <c r="G4" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="22.5">
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="33.75">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -727,10 +750,13 @@
         <v>42933</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="22.5">
+        <v>51</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.5">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -750,10 +776,13 @@
         <v>42933</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="33.75">
+        <v>51</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="33.75">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -775,8 +804,9 @@
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -798,8 +828,9 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -818,8 +849,9 @@
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -841,8 +873,9 @@
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -864,8 +897,9 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -887,8 +921,9 @@
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -910,8 +945,9 @@
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -933,8 +969,9 @@
       <c r="G14" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" hidden="1">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -956,8 +993,9 @@
       <c r="G15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -979,8 +1017,9 @@
       <c r="G16" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="22.5">
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="22.5">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1002,8 +1041,9 @@
       <c r="G17" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" ht="33.75">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1023,10 +1063,13 @@
         <v>42933</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="22.5">
+        <v>51</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="22.5">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1046,10 +1089,13 @@
         <v>42933</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1071,8 +1117,9 @@
       <c r="G20" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" hidden="1">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1094,8 +1141,9 @@
       <c r="G21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" hidden="1">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1117,8 +1165,9 @@
       <c r="G22" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" hidden="1">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1140,8 +1189,9 @@
       <c r="G23" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" hidden="1">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1163,8 +1213,9 @@
       <c r="G24" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="22.5">
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="22.5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1186,8 +1237,9 @@
       <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="22.5">
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="22.5" hidden="1">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1209,8 +1261,9 @@
       <c r="G26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" hidden="1">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1232,8 +1285,9 @@
       <c r="G27" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" hidden="1">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1255,8 +1309,9 @@
       <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" hidden="1">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1278,8 +1333,9 @@
       <c r="G29" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" hidden="1">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1301,8 +1357,9 @@
       <c r="G30" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1322,10 +1379,13 @@
         <v>42933</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>51</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1347,8 +1407,9 @@
       <c r="G32" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" hidden="1">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1370,8 +1431,9 @@
       <c r="G33" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" hidden="1">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1393,8 +1455,9 @@
       <c r="G34" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1413,8 +1476,9 @@
       <c r="G35" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="56.25">
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" ht="56.25" hidden="1">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1437,7 +1501,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" hidden="1">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1456,8 +1520,9 @@
       <c r="G37" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" hidden="1">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1476,8 +1541,16 @@
       <c r="G38" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="H38" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H38">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Vagner"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
   <si>
     <t>Tarefa</t>
   </si>
@@ -225,6 +225,31 @@
   </si>
   <si>
     <t>Nomenclatura padronizada no WBS</t>
+  </si>
+  <si>
+    <t>- Visual Studio Professional 2016</t>
+  </si>
+  <si>
+    <t>- Linguagem de programação C#</t>
+  </si>
+  <si>
+    <t>- Sql Server 2016 (fornecido pelo pacote de hospedagem)</t>
+  </si>
+  <si>
+    <t>- Tecnologias complementares: JavaScript, JQuery, CSS, Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vamos utilizar:
+- Visual Studio Professional 2016
+- Linguagem de programação C#
+- Asp.Net framework
+- Hospedagem externa
+- Sql Server 2016 (fornecido pelo pacote de hospedagem)
+- Tecnologias complementares: JavaScript, JQuery, CSS, Angular
+</t>
+  </si>
+  <si>
+    <t>Google Calendar é uma ferramenta completa, não teríamos muitas justificativas técnicas para não implementarmos, sendo assim, a solução será uma justificativa de restrições da cliente, onde a mesma solicitou que toda sua agenda fosse armazenada em uma base de dados administrada por nós, e não exposta terceiros</t>
   </si>
 </sst>
 </file>
@@ -617,8 +642,8 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -782,7 +807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33.75">
+    <row r="7" spans="1:8" ht="112.5">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -804,7 +829,9 @@
       <c r="G7" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="8" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:8" hidden="1">
       <c r="A8" s="1">
@@ -828,7 +855,9 @@
       <c r="G8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="8"/>
+      <c r="H8" s="8" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:8" hidden="1">
       <c r="A9" s="1">
@@ -849,7 +878,9 @@
       <c r="G9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="8" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="10" spans="1:8" hidden="1">
       <c r="A10" s="1">
@@ -873,7 +904,10 @@
       <c r="G10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="8"/>
+      <c r="H10" s="8" t="e">
+        <f>- Asp.Net framework</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="11" spans="1:8" hidden="1">
       <c r="A11" s="1">
@@ -897,7 +931,10 @@
       <c r="G11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="8" t="e">
+        <f>- Hospedagem externa</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="12" spans="1:8" hidden="1">
       <c r="A12" s="1">
@@ -921,7 +958,9 @@
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8"/>
+      <c r="H12" s="8" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:8" hidden="1">
       <c r="A13" s="1">
@@ -945,7 +984,9 @@
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="14" spans="1:8" hidden="1">
       <c r="A14" s="1">
@@ -1215,7 +1256,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="22.5">
+    <row r="25" spans="1:8" ht="112.5">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1237,7 +1278,9 @@
       <c r="G25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H25" s="8"/>
+      <c r="H25" s="8" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="22.5" hidden="1">
       <c r="A26" s="1">

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="66">
   <si>
     <t>Tarefa</t>
   </si>
@@ -231,12 +231,6 @@
   </si>
   <si>
     <t>- Linguagem de programação C#</t>
-  </si>
-  <si>
-    <t>- Sql Server 2016 (fornecido pelo pacote de hospedagem)</t>
-  </si>
-  <si>
-    <t>- Tecnologias complementares: JavaScript, JQuery, CSS, Angular</t>
   </si>
   <si>
     <t xml:space="preserve">Vamos utilizar:
@@ -638,12 +632,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -683,7 +676,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8" hidden="1">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -707,7 +700,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" hidden="1">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -731,7 +724,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" hidden="1">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -827,13 +820,13 @@
         <v>42933</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" hidden="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -859,7 +852,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8" hidden="1">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -882,7 +875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8" hidden="1">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -909,7 +902,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:8" hidden="1">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -936,7 +929,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:8" hidden="1">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -958,11 +951,9 @@
       <c r="G12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" hidden="1">
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -984,11 +975,9 @@
       <c r="G13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" hidden="1">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1012,7 +1001,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" hidden="1">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1036,7 +1025,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8" hidden="1">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1136,7 +1125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8" hidden="1">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1160,7 +1149,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" hidden="1">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1184,7 +1173,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" hidden="1">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1208,7 +1197,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" hidden="1">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1232,7 +1221,7 @@
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8" hidden="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1276,13 +1265,13 @@
         <v>42933</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="22.5" hidden="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="22.5">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1306,7 +1295,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8" hidden="1">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1330,7 +1319,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" hidden="1">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1354,7 +1343,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8" hidden="1">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1378,7 +1367,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8" hidden="1">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1428,7 +1417,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8" hidden="1">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1452,7 +1441,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8" hidden="1">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1476,7 +1465,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8" hidden="1">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1500,7 +1489,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8" hidden="1">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1521,7 +1510,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="56.25" hidden="1">
+    <row r="36" spans="1:8" ht="56.25">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1544,7 +1533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:8" hidden="1">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1565,7 +1554,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8" hidden="1">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1587,13 +1576,6 @@
       <c r="H38" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H38">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Vagner"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$H$38</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -249,8 +254,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -388,9 +393,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,9 +427,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,9 +479,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -631,15 +672,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -652,7 +693,7 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="22.5">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -676,7 +717,7 @@
       </c>
       <c r="H1" s="4"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -700,7 +741,7 @@
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -724,7 +765,7 @@
       </c>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -748,7 +789,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="33.75">
+    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -774,7 +815,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5">
+    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -800,7 +841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112.5">
+    <row r="7" spans="1:8" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -826,7 +867,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -852,7 +893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -875,7 +916,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -902,7 +943,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -929,7 +970,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -953,7 +994,7 @@
       </c>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -977,7 +1018,7 @@
       </c>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1001,7 +1042,7 @@
       </c>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1025,7 +1066,7 @@
       </c>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1049,7 +1090,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="22.5">
+    <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1073,7 +1114,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="33.75">
+    <row r="18" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1099,7 +1140,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5">
+    <row r="19" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1125,7 +1166,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1149,7 +1190,7 @@
       </c>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1173,7 +1214,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1197,7 +1238,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -1217,11 +1258,11 @@
         <v>42933</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H23" s="8"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -1245,7 +1286,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="112.5">
+    <row r="25" spans="1:8" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1271,7 +1312,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="22.5">
+    <row r="26" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1295,7 +1336,7 @@
       </c>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1319,7 +1360,7 @@
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1343,7 +1384,7 @@
       </c>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -1367,7 +1408,7 @@
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1391,7 +1432,7 @@
       </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -1417,7 +1458,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -1441,7 +1482,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -1465,7 +1506,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1489,7 +1530,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -1510,7 +1551,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="56.25">
+    <row r="36" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -1533,7 +1574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -1554,7 +1595,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1576,6 +1617,7 @@
       <c r="H38" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H38"/>
   <sortState ref="A2:F33">
     <sortCondition descending="1" ref="A2"/>
   </sortState>

--- a/TCC/2º Encontro/Tarefas.xlsx
+++ b/TCC/2º Encontro/Tarefas.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tati\Desktop\Arquivos TCC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FULLFace\Documents\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
   </bookViews>
   <sheets>
     <sheet name="Tarefas" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tarefas!$A$1:$H$38</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -254,7 +254,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,9 +353,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +393,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,23 +428,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -480,26 +463,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -676,24 +642,24 @@
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="10" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="85.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="85.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="16.81640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
-    <col min="8" max="8" width="28.7109375" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1"/>
+    <col min="8" max="8" width="28.7265625" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -737,7 +703,7 @@
         <v>42933</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -789,7 +755,7 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -815,7 +781,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -841,7 +807,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="100" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1090,7 +1056,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0</v>
       </c>
@@ -1114,7 +1080,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1140,7 +1106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="20" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0</v>
       </c>
@@ -1286,7 +1252,7 @@
       </c>
       <c r="H24" s="8"/>
     </row>
-    <row r="25" spans="1:8" ht="112.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="90" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1312,7 +1278,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1551,7 +1517,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="1:8" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="50" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
